--- a/Material intensities/mat_per_road_type.xlsx
+++ b/Material intensities/mat_per_road_type.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Output\5. Material intensities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Material intensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0BCD1F-3F54-4424-B39F-EFC73B8B6BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715DEDF5-64C1-48A5-828F-7CF708ABE401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13410" yWindow="1770" windowWidth="14370" windowHeight="19110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Material_intensities" sheetId="2" r:id="rId1"/>
+    <sheet name="Coversheet" sheetId="3" r:id="rId1"/>
+    <sheet name="Material_intensities" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="54">
   <si>
     <t>GRIP region</t>
   </si>
@@ -160,12 +161,64 @@
   <si>
     <t>Rousseau, L. S. A., Kloostra, B., AzariJafari, H., Saxe, S., Gregory, J., &amp; Hertwich, E. G. (2022). Material Stock and Embodied Greenhouse Gas Emissions of Global and Urban Road Pavement. Environmental Science &amp; Technology, 56(24), 18050–18059. https://doi.org/10.1021/acs.est.2c05255</t>
   </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Material intensities of roads based on Rousseau et al. (2022) v.1.0.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +242,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,21 +279,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{94ABA460-7953-4932-BD82-C2719B06D2CA}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{A83C4268-2A95-4B75-B882-6061D8E4F45C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,6 +313,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAC1624-C32D-45B3-A9C9-402101320D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3C4EA6-CBC8-483D-8935-CF836A0DEA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,34 +704,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7494F805-7DC9-4199-9FDE-7413E9A5BAA4}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{2D9F328D-10AF-401E-9D62-DFAEDA132E9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F392C-04B2-4810-B980-05F198A81C03}">
   <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -625,7 +919,7 @@
         <v>175.26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -675,7 +969,7 @@
         <v>35.051999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -725,7 +1019,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -775,7 +1069,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -825,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -875,7 +1169,7 @@
         <v>192.786</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -925,7 +1219,7 @@
         <v>39.725599999999979</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -975,7 +1269,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1025,7 +1319,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1075,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1125,7 +1419,7 @@
         <v>192.786</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1175,7 +1469,7 @@
         <v>37.388799999999968</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1225,7 +1519,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1275,7 +1569,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1325,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1375,7 +1669,7 @@
         <v>157.73400000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1425,7 +1719,7 @@
         <v>42.062399999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1475,7 +1769,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1525,7 +1819,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1575,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1625,7 +1919,7 @@
         <v>175.59561492109859</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1675,7 +1969,7 @@
         <v>161.83070442940229</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1725,7 +2019,7 @@
         <v>141.36935099579969</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1775,7 +2069,7 @@
         <v>126.4883666804524</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1825,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1875,7 +2169,7 @@
         <v>56.349999999999987</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1925,7 +2219,7 @@
         <v>46.919999999999987</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1975,7 +2269,7 @@
         <v>43.757499999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2025,7 +2319,7 @@
         <v>41.457499999999989</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2075,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2125,7 +2419,7 @@
         <v>59.270999999999987</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2175,7 +2469,7 @@
         <v>49.84099999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2225,7 +2519,7 @@
         <v>43.757499999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2275,7 +2569,7 @@
         <v>41.457499999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2325,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2375,7 +2669,7 @@
         <v>59.270999999999987</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2425,7 +2719,7 @@
         <v>48.380499999999977</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2475,7 +2769,7 @@
         <v>43.757499999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2525,7 +2819,7 @@
         <v>41.457499999999989</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2575,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2625,7 +2919,7 @@
         <v>53.428999999999988</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2675,7 +2969,7 @@
         <v>51.30149999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2725,7 +3019,7 @@
         <v>43.757499999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2775,7 +3069,7 @@
         <v>41.457499999999989</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2825,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2875,7 +3169,7 @@
         <v>23.000000000000021</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2925,7 +3219,7 @@
         <v>20.24000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2975,7 +3269,7 @@
         <v>16.560000000000009</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3025,7 +3319,7 @@
         <v>13.80000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3075,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3125,7 +3419,7 @@
         <v>38.640000000000029</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3175,7 +3469,7 @@
         <v>35.880000000000017</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3225,7 +3519,7 @@
         <v>32.200000000000017</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3275,7 +3569,7 @@
         <v>29.44000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3325,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3375,7 +3669,7 @@
         <v>34.500000000000028</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3425,7 +3719,7 @@
         <v>31.74000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3475,7 +3769,7 @@
         <v>27.600000000000019</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3525,7 +3819,7 @@
         <v>24.840000000000021</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3575,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3625,7 +3919,7 @@
         <v>38.640000000000029</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3675,7 +3969,7 @@
         <v>35.880000000000017</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3725,7 +4019,7 @@
         <v>32.200000000000017</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3775,7 +4069,7 @@
         <v>29.44000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3825,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3875,7 +4169,7 @@
         <v>30.820000000000022</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3925,7 +4219,7 @@
         <v>28.06000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3975,7 +4269,7 @@
         <v>24.38000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -4025,7 +4319,7 @@
         <v>21.620000000000019</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -4075,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -4125,7 +4419,7 @@
         <v>28.750000000000021</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -4175,7 +4469,7 @@
         <v>25.99000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -4225,7 +4519,7 @@
         <v>22.08000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -4275,7 +4569,7 @@
         <v>19.320000000000011</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -4325,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -4375,7 +4669,7 @@
         <v>30.820000000000022</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -4425,7 +4719,7 @@
         <v>28.06000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -4475,7 +4769,7 @@
         <v>24.38000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -4525,7 +4819,7 @@
         <v>21.620000000000019</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -4575,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -4625,7 +4919,7 @@
         <v>30.820000000000022</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4675,7 +4969,7 @@
         <v>28.06000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -4725,7 +5019,7 @@
         <v>24.38000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -4775,7 +5069,7 @@
         <v>21.620000000000019</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -4825,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -4875,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4925,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4975,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -5025,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -5075,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -5125,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -5175,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -5225,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -5275,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -5325,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -5375,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -5425,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -5475,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -5525,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -5575,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -5625,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -5675,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -5725,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -5775,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -5825,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -5875,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -5925,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -5975,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -6025,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -6075,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -6125,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -6175,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -6225,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -6275,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -6325,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -6375,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -6425,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -6475,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -6525,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -6575,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -6625,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -6675,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -6725,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -6775,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -6825,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -6875,7 +7169,7 @@
         <v>155.25</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -6925,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -6975,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -7025,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -7075,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -7125,7 +7419,7 @@
         <v>155.25</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -7175,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -7225,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -7275,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -7325,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -7375,7 +7669,7 @@
         <v>106.95</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -7425,7 +7719,7 @@
         <v>25.012499999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -7475,7 +7769,7 @@
         <v>23.287500000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -7525,7 +7819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -7575,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -7625,7 +7919,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4</v>
       </c>
@@ -7675,7 +7969,7 @@
         <v>52.900000000000013</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -7725,7 +8019,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -7775,7 +8069,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -7825,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4</v>
       </c>
@@ -7875,7 +8169,7 @@
         <v>56.35</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -7925,7 +8219,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -7975,7 +8269,7 @@
         <v>52.900000000000013</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -8025,7 +8319,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4</v>
       </c>
@@ -8075,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4</v>
       </c>
@@ -8125,7 +8419,7 @@
         <v>406.41</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -8175,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -8225,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -8275,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4</v>
       </c>
@@ -8325,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4</v>
       </c>
@@ -8375,7 +8669,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -8425,7 +8719,7 @@
         <v>55.966666666666669</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
@@ -8475,7 +8769,7 @@
         <v>49.066666666666663</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -8525,7 +8819,7 @@
         <v>49.833333333333329</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -8575,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -8625,7 +8919,7 @@
         <v>55.775000000000013</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4</v>
       </c>
@@ -8675,7 +8969,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4</v>
       </c>
@@ -8725,7 +9019,7 @@
         <v>47.15</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4</v>
       </c>
@@ -8775,7 +9069,7 @@
         <v>50.024999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4</v>
       </c>
@@ -8825,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -8875,7 +9169,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -8925,7 +9219,7 @@
         <v>55.966666666666669</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4</v>
       </c>
@@ -8975,7 +9269,7 @@
         <v>49.066666666666663</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4</v>
       </c>
@@ -9025,7 +9319,7 @@
         <v>49.833333333333329</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4</v>
       </c>
@@ -9075,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
@@ -9125,7 +9419,7 @@
         <v>56.924999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -9175,7 +9469,7 @@
         <v>54.241666666666667</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4</v>
       </c>
@@ -9225,7 +9519,7 @@
         <v>48.491666666666667</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4</v>
       </c>
@@ -9275,7 +9569,7 @@
         <v>50.983333333333327</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4</v>
       </c>
@@ -9325,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5</v>
       </c>
@@ -9375,7 +9669,7 @@
         <v>60.388127853881286</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5</v>
       </c>
@@ -9425,7 +9719,7 @@
         <v>47.260273972602739</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5</v>
       </c>
@@ -9475,7 +9769,7 @@
         <v>36.315789473684212</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5</v>
       </c>
@@ -9525,7 +9819,7 @@
         <v>34.748201438848923</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5</v>
       </c>
@@ -9575,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
@@ -9625,7 +9919,7 @@
         <v>60.388127853881286</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5</v>
       </c>
@@ -9675,7 +9969,7 @@
         <v>47.260273972602739</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5</v>
       </c>
@@ -9725,7 +10019,7 @@
         <v>36.315789473684212</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5</v>
       </c>
@@ -9775,7 +10069,7 @@
         <v>34.748201438848923</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -9825,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6</v>
       </c>
@@ -9875,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>6</v>
       </c>
@@ -9925,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6</v>
       </c>
@@ -9975,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>6</v>
       </c>
@@ -10025,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6</v>
       </c>
@@ -10075,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>6</v>
       </c>
@@ -10125,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>6</v>
       </c>
@@ -10175,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>6</v>
       </c>
@@ -10225,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>6</v>
       </c>
@@ -10275,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -10325,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>6</v>
       </c>
@@ -10375,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>6</v>
       </c>
@@ -10425,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>6</v>
       </c>
@@ -10475,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>6</v>
       </c>
@@ -10525,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>6</v>
       </c>
@@ -10575,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>6</v>
       </c>
@@ -10625,7 +10919,7 @@
         <v>39.96999999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>6</v>
       </c>
@@ -10675,7 +10969,7 @@
         <v>22.840000000000021</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>6</v>
       </c>
@@ -10725,7 +11019,7 @@
         <v>11.420000000000011</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6</v>
       </c>
@@ -10775,7 +11069,7 @@
         <v>11.420000000000011</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>6</v>
       </c>
@@ -10825,7 +11119,7 @@
         <v>148.46</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>6</v>
       </c>
@@ -10875,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>6</v>
       </c>
@@ -10925,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>6</v>
       </c>
@@ -10975,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>6</v>
       </c>
@@ -11025,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>6</v>
       </c>
@@ -11075,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>7</v>
       </c>
@@ -11125,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>7</v>
       </c>
@@ -11175,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7</v>
       </c>
@@ -11225,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7</v>
       </c>
@@ -11275,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>7</v>
       </c>
@@ -11325,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>7</v>
       </c>
@@ -11375,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7</v>
       </c>
@@ -11425,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>7</v>
       </c>
@@ -11475,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>7</v>
       </c>
@@ -11525,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>7</v>
       </c>
@@ -11575,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7</v>
       </c>
@@ -11625,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>7</v>
       </c>
@@ -11675,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7</v>
       </c>
@@ -11725,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>7</v>
       </c>
@@ -11775,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>7</v>
       </c>
@@ -11825,12 +12119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>40</v>
       </c>
